--- a/biology/Botanique/Osmorhize_de_l'Ouest/Osmorhize_de_l'Ouest.xlsx
+++ b/biology/Botanique/Osmorhize_de_l'Ouest/Osmorhize_de_l'Ouest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Osmorhize_de_l%27Ouest</t>
+          <t>Osmorhize_de_l'Ouest</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Osmorhiza occidentalis est une espèce de plantes à fleurs de la famille des Apiaceae et qui est originaire de l'Ouest de l'Amérique du Nord, y compris le Nord-Ouest des États-Unis et la Californie. Elle est présente dans les zones boisées, le plus souvent entre 1 200 et 3 000 m d'altitude. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Osmorhize_de_l%27Ouest</t>
+          <t>Osmorhize_de_l'Ouest</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Osmorhiza occidentalis est une plante herbacée vivace dressée pouvant dépasser un mètre de hauteur. 
 Les feuilles vertes ont des limbes jusqu'à 20 cm de longueur qui sont divisés en folioles dentées et irrégulièrement coupées. Le limbe est porté par un long pétiole. 
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Osmorhize_de_l%27Ouest</t>
+          <t>Osmorhize_de_l'Ouest</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (14 octobre 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (14 octobre 2021) :
 variété Osmorhiza occidentalis var. bolanderi (A. Gray) J.M. Coult. &amp; Rose
 variété Osmorhiza occidentalis var. occidentalis</t>
         </is>
